--- a/Data/GrimWorld 40,000 - Hammer of the Imperium - 3015391450/GrimWorld 40,000 - Hammer of the Imperium.xlsx
+++ b/Data/GrimWorld 40,000 - Hammer of the Imperium - 3015391450/GrimWorld 40,000 - Hammer of the Imperium.xlsx
@@ -1,323 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\GrimWorld 40,000 - Hammer of the Imperium - 3015391450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\GrimWorld 40,000 - Hammer of the Imperium - 3015391450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93573155-2A3A-4FB7-91AF-DED2313E49D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1912D846-0D4B-4A7C-B934-64C8CDA82F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="7080" windowWidth="28725" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="2024-04-21_삭제된 노드 목록" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Lammergeier</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the strategic depths of GrimWorld 40,000, the Tactica Imperium serves as the guiding doctrine for Imperial forces. This comprehensive tactical manual encapsulates the accumulated wisdom of the Imperium in navigating the relentless challenges of the 41st millennium.\n\nBound in weathered and battle-worn tomes, the Tactica Imperium is a symbol of strategic resilience. Its pages, etched with the experiences of countless battles, provide a roadmap for commanders to navigate the complexities of warfare within the Imperium.\n\nWithin its chapters lie the doctrines of combined arms, siege warfare, and adaptable tactics, embodying the pragmatic nature demanded by the grim realities of battle. As a revered text, the Tactica Imperium is a cornerstone of military education, shaping the minds of commanders who lead the Imperium's forces into the unyielding darkness.\n\nIn the relentless struggle of GrimWorld 40,000, the Tactica Imperium stands as a beacon of strategic insight, a vital tool in the Imperium's unending quest for survival and dominance.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'Within the grim and besieged expanse of GrimWorld 40,000, Imperium Defense stands as a formidable bulwark against the encroaching darkness. With a steadfast commitment to protect the Imperium's domains, this defensive network is a testament to the unwavering resolve of the Imperium in the face of relentless threats.\n\nMarked by towering fortifications and layered defenses, Imperium Defense reflects the pragmatic and resilient nature demanded by the harsh realities of the 41st millennium. Embracing a multifaceted approach, it combines formidable walls, automated turrets, and strategic chokepoints to repel assailants on the battlefield.\n\nStrategically positioned bunkers and bastions bear the scars of countless engagements, each testament to the defenders' unyielding commitment. The defensive architecture, adorned with Imperial iconography, symbolizes the Imperium's unrelenting defiance against those who seek to bring about its demise.\n\nAs a cornerstone of Imperium strategy, Imperium Defense embodies the collective determination to hold the line. In the relentless struggle for survival, it stands as an embodiment of the indomitable spirit that fuels the Imperium's defense against the myriad threats lurking in the grim and perilous expanse of GrimWorld 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the war-ravaged landscape of GrimWorld 40,000, Militarum Armor serves as the unyielding shield for Imperial Guard forces. Crafted with pragmatic efficiency and battle-worn resilience, this armor embodies the Imperium's commitment to providing its soldiers with durable protection in the relentless 41st millennium warfare.\n\nConstructed from reinforced ceramite and ablative plating, Militarum Armor is a testament to the imperatives of survival. Its utilitarian design reflects the harsh realities of the battlefield, offering steadfast protection against ballistic and energy threats.\n\nEmblazoned with the Aquila and regimental markings, each suit of Militarum Armor carries the weight of duty and loyalty. The battle-scarred appearance tells stories of countless engagements, symbolizing the sacrifices made by Imperial Guardsmen in service to the Emperor.\n\nEquipped with an integrated rebreather and environmental seals, Militarum Armor ensures the resilience of its wearers against the hazardous conditions of the war-torn worlds they traverse. In the face of relentless adversaries, it stands as a symbol of the Imperium's commitment to defending humanity against the encroaching darkness of GrimWorld 40,000.s'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the vast tapestry of GrimWorld 40,000, the Regiments of Renown stand as illustrious symbols of valor and distinction within the Imperial Guard. These elite units, forged in the crucible of countless battles, carry a storied history and exemplify the highest standards of martial prowess and unwavering loyalty to the Imperium.\n\nDistinguished by their unique heraldry, battle honors, and exceptional combat prowess, the Regiments of Renown are the embodiment of the Imperium's finest. Each regiment bears a legacy etched with heroic deeds, serving as a beacon of inspiration for their fellow Guardsmen.\n\nThese elite forces often deploy specialized tactics and wield rare or advanced weaponry, showcasing the Imperium's commitment to harnessing every advantage in the ongoing war. Whether renowned for their unyielding defense, lightning-fast assaults, or strategic brilliance, each regiment contributes its own indelible mark to the Imperium's enduring struggle.\n\nAs legends on the battlefield, the Regiments of Renown inspire awe and fear among allies and adversaries alike. Their stories echo through the grim corridors of Imperial history, reinforcing the Imperium's resilience and determination against the relentless darkness of GrimWorld 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the grim and hostile universe of Warhammer 40,000, the Catachan Jungle Fighters represent a breed of elite soldiers forged on the death world Catachan. Renowned for their exceptional combat skills and resilience, these warriors navigate the perilous jungles with unparalleled expertise.\n\nClad in camouflaged fatigues designed for jungle warfare, Catachan Jungle Fighters seamlessly blend into their surroundings. Their attire is a testament to the harsh conditions of Catachan, emphasizing practicality and adaptability in the face of relentless threats.\n\nExpert practitioners of guerrilla tactics, Catachan Jungle Fighters excel in ambushing enemies and navigating dense foliage with stealth and precision. Armed with rugged weaponry suited for the unpredictable jungles, they turn the natural environment into a deadly weapon against their foes.\n\nEach Catachan warrior carries the scars of surviving Catachan's lethal ecosystem, and their reputation for tenacity and skill has become legendary in the Imperium. In the grim darkness of the 41st millennium, the Catachan Jungle Fighters stand as a symbol of the Imperium's ability to produce elite soldiers capable of thriving in the most hazardous conditions of Warhammer 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the grim and unrelenting universe of Warhammer 40,000, the Death Korps of Krieg stand as a stoic and disciplined regiment within the Imperial Guard. Originating from the irradiated and war-torn Death World of Krieg, these soldiers are marked by their unwavering commitment to duty and the relentless pursuit of victory.\n\nClad in distinctive gas masks and trench coats, the Death Korps of Krieg exhibit a grim and austere appearance. Their attire reflects the harsh conditions of their homeworld, a place perpetually ravaged by warfare and toxic environments.\n\nKnown for their exceptional discipline and resilience, the Death Korps soldiers are relentless in the face of adversity. They are often deployed in trench warfare and siege scenarios, embodying a willingness to endure prolonged conflicts for the glory of the Emperor.\n\nArmed with sturdy lasguns and heavy artillery, the Death Korps of Krieg bring devastating firepower to bear upon their enemies. Their battlefield tactics emphasize attrition and methodical advancement, reflecting the relentless determination instilled in them by the unforgiving crucible of Krieg.\n\nEach soldier of the Death Korps carries the weight of their homeworld's tragic history and the burden of unyielding service to the Imperium. In the grim darkness of the 41st millennium, the Death Korps of Krieg exemplify the harsh realities and unwavering resolve required to defend humanity against the myriad threats of Warhammer 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the relentless warfare of Warhammer 40,000, the Mordian Iron Guard stands as a stalwart and disciplined regiment within the Imperial Guard. Hailing from the urban fortress world of Mordian, these soldiers are renowned for their precision, unwavering discipline, and formidable battlefield formations.\n\nClad in distinctive dress uniforms, complete with dress caps and rigidly maintained formations, the Mordian Iron Guard presents a striking and martial appearance. Their attire reflects both the military precision instilled in them and the urban battlegrounds from which they emerge.\n\nKnown for their methodical and synchronized maneuvers, the Mordian Iron Guard excels in line formations and defensive tactics. Their training emphasizes maintaining order and unyielding discipline, creating a formidable force on the battlefield.\n\nArmed with lasguns and supported by heavy weapons teams, the Mordian Iron Guard brings disciplined firepower to bear against their foes. Their strategic approach and cohesive formations make them a resilient and effective force in various combat scenarios.\n\nEach Mordian Iron Guard soldier embodies the regiment's dedication to precision and order, representing the unwavering commitment to defending the Imperium in the grim and expansive universe of Warhammer 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the arid expanses of Warhammer 40,000, the Tallarn Desert Raiders epitomize swift and adaptive warfare within the ranks of the Imperial Guard. Hailing from the desert world of Tallarn, these soldiers are renowned for their exceptional mobility, hit-and-run tactics, and mastery of desert warfare.\n\nClad in distinctive desert camouflage and lightweight armor, the Tallarn Desert Raiders seamlessly blend into their sandy surroundings. Their attire reflects both the practical demands of desert combat and the necessity for swift and nimble maneuvers on the battlefield.\n\nKnown for their exceptional speed and flexibility, the Tallarn soldiers excel in hit-and-run tactics and flanking maneuvers. Their expertise in desert warfare allows them to navigate the harsh terrain with ease, turning the vast desert expanse into a tactical advantage.\n\nArmed with lasguns and specializing in fast-moving armored vehicles, the Tallarn Desert Raiders bring rapid and unpredictable firepower to the battlefield. Their hit-and-fade tactics make them a formidable force against adversaries who struggle to keep pace with their agile maneuvers.\n\nEach Tallarn soldier embodies the regiment's adaptability and mastery of desert warfare, showcasing the Imperium's ability to produce specialized forces tailored to the unique challenges of the Warhammer 40,000 universe.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the relentless and perilous universe of Warhammer 40,000, the Tempestus Scions stand as elite shock troops within the Imperial Guard. Formerly known as Stormtroopers, these soldiers are an elite and highly specialized force, embodying precision, versatility, and unwavering discipline.\n\nClad in distinctive carapace armor, adorned with respirators and rebreather masks, the Tempestus Scions present a formidable and sleek appearance. Their attire reflects both advanced technology and the need for protection in a wide range of hazardous environments.\n\nRenowned for their rapid deployment and surgical strikes, the Tempestus Scions excel in high-stakes missions where precision and speed are paramount. Their training and equipment make them ideal for infiltration, assassination, and combating highly specialized threats to the Imperium.\n\nArmed with hot-shot lasguns and specialized weaponry, the Tempestus Scions bring potent firepower to the battlefield. Whether dropping from low orbit or infiltrating behind enemy lines, they are a force to be reckoned with, capable of turning the tide of battle with their expertise.\n\nEach Tempestus Scion is a symbol of the Imperium's commitment to producing highly trained and adaptable shock troops, ready to face the myriad threats that lurk in the grim darkness of the 41st millennium in Warhammer 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the frozen wastelands of Warhammer 40,000, the Valhallan Ice Warriors stand as stalwart defenders within the Imperial Guard. Originating from the ice-covered world of Valhalla, these soldiers are renowned for their resilience, adaptability to extreme cold, and unyielding determination.\n\nCloaked in rugged winter gear, including fur-lined coats and ice-resistant armor, the Valhallan Ice Warriors present a distinctive and practical appearance. Their attire reflects not only the harsh conditions of Valhalla but also the necessity for effective protection against the biting cold.\n\nKnown for their ability to endure freezing temperatures and expert marksmanship, the Valhallan soldiers excel in winter warfare. Their training and equipment make them well-suited for prolonged operations in frigid environments, turning the icy landscape into a tactical advantage.\n\nArmed with lasguns and heavy weapons, the Valhallan Ice Warriors bring potent firepower to bear against their foes. Their strategic approach and adaptation to cold climates make them a formidable force in both defensive and offensive scenarios.\n\nEach Valhallan soldier embodies the regiment's resilience and adaptability, showcasing the Imperium's capacity to produce specialized forces ready to face the harsh realities of the 41st millennium in Warhammer 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the sprawling expanse of Warhammer 40,000, the Vostroyan Firstborn stand as a distinguished regiment within the Imperial Guard. Hailing from the hive world of Vostroya, these soldiers are renowned for their regal appearance, formidable discipline, and exceptional marksmanship.\n\nAdorned in elaborate carapace armor and distinctive uniforms, the Vostroyan Firstborn present a striking and aristocratic appearance. Their attire reflects not only a commitment to practical protection but also a nod to the regal traditions of their homeworld.\n\nKnown for their precision in marksmanship and methodical tactics, the Vostroyan soldiers excel in long-range engagements. Their training emphasizes disciplined fire and cohesive unit movements, making them a formidable force on the battlefield.\n\nArmed with lasguns and ornate weaponry, the Vostroyan Firstborn bring a blend of sophistication and lethal firepower to their adversaries. Their strategic approach and disciplined formations make them adept at both defensive and offensive operations.\n\nEach Vostroyan soldier embodies the regiment's proud heritage and commitment to excellence, symbolizing the Imperium's capacity to produce specialized forces ready to face the myriad challenges of the grim darkness in the 41st millennium.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the unforgiving expanse of Warhammer 40,000, the Kasrkin stand as elite troops within the Imperial Guard, renowned for their specialized training and unwavering discipline. These soldiers, often deployed in critical missions, embody the pinnacle of Imperial Guard infantry, combining advanced skills with superior firepower.\n\nAdorned in distinctive carapace armor, the Kasrkin present a formidable and visually striking appearance. Their attire, marked by the Aquila and regimental insignia, reflects the high standard of protection and the pride associated with their elite status.\n\nKnown for their advanced combat tactics and resilience, the Kasrkin excel in various battlefield scenarios. Whether engaging in urban warfare, counterinsurgency operations, or frontline assaults, they showcase adaptability and strategic prowess.\n\nArmed with potent hot-shot lasguns and equipped with specialized gear, the Kasrkin bring formidable and precise firepower to the forefront. Their role often involves tackling high-priority targets, and their advanced training allows them to operate in small, elite squads with efficiency.\n\nEach Kasrkin soldier embodies the Imperium's commitment to producing an elite force capable of undertaking critical missions in the grim and perilous reality of the 41st millennium.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the war-torn realms of Warhammer 40,000, the Armageddon Steel Legion stands as a disciplined and mechanized regiment within the Imperial Guard. Hailing from the industrial world of Armageddon, these soldiers are renowned for their resilience, combined arms tactics, and adaptability in urban warfare.\n\nClad in distinctive gas masks, flak armor, and armored fatigues, the Armageddon Steel Legion presents a rugged and utilitarian appearance. Their attire reflects both the harsh conditions of urban warfare and the necessity for protection against various threats.\n\nKnown for their proficiency in mechanized warfare and armored assaults, the Armageddon Steel Legion excels in deploying heavy infantry alongside formidable armored support. Their training emphasizes combined arms tactics, making them a versatile force capable of engaging in a wide range of battlefield scenarios.\n\nArmed with lasguns and supported by armored vehicles, including Chimera transports and Leman Russ tanks, the Armageddon Steel Legion brings a potent mix of infantry and heavy firepower to the battlefield. Their ability to conduct coordinated mechanized assaults makes them effective in reclaiming urban territories from hostile forces.\n\nEach Armageddon Steel Legionnaire embodies the regiment's commitment to defending their homeworld and the Imperium at large, showcasing the adaptability and resilience required to thrive in the grim darkness of the 41st millennium.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'Allows for the creation of equipment usually wielded by Ogryn, massive abhumans usually employed as shock troopers by the Imperium of Man. The Ogryn (Homo sapiens gigantus) are a huge and physically powerful Abhuman mutant subspecies of Humanity, often employed by the Imperium of Man as shock troopers in the Astra Militarum's Militarum Auxilla. Ogryns possess many traits prized by the Imperium; they are brutally strong and completely loyal, although extremely limited intellectually, which restricts their battlefield role to simple and direct assaults. They hail from a series of cold and barren planets across the galaxy that possess high gravity, such as Anark Zeta, which is why they appear larger, heavier and bulkier compared to baseline Humans. Ogryns compensate for their mental deficiencies with overwhelming physicality -- the brutish creatures stand around 10 Terran feet (3 metres) tall and can shrug off wounds that would kill an Imperial Guardsman several times over. These qualities mean that Ogryns make exceptional shock troops, and are often deployed on the front lines of battle by Imperial commanders.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'Allows for the creation of equipment usually wielded by Ratlings, small abhumans usually employed as snipers by the Imperium of Man. A Ratling (Homo sapiens minimus) is a member of a small, loud, hungry and lecherous Abhuman species. Ratlings are granted full Imperial citizenship despite their mutant status and in the past have often served in the regiments of the Astra Militarum as members of the Militarum Auxilla. However, they are still distrusted by the more Puritanical members of the Inquisition. Though less resilient than their baseline Human comrades, Ratlings are naturally excellent shots. It is said that Ratling marksmen can take the head off a Heretic from over a kilometre away. Coupled with their knack for staying out of harm's way, this makes Ratlings formidable snipers who can exact a withering toll upon superior enemy forces. Inevitably, the Abhuman Ratlings face prejudice from the baseline Human troops they serve alongside, yet their skill as thieves, fences and black marketeers tends to win them acceptance. Indeed, Guardsmen who give the Ratlings too much grief will often find themselves mysteriously short of ammunition in the heat of battle, while their diminutive tormentors watch gleefully through telescopic sights.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E207" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the relentless expanse of the Warhammer 40,000 galaxy, the Astra Militarum Agripinaa MKII Bolter stands as a paragon of firepower, wielded by the indomitable soldiers of the Imperium. Crafted with meticulous care, this bolter features a robust and matte-black ceramite alloy exterior, symbolizing its steadfastness in the unyielding crucible of war.\n\nFunctioning as a rapid-firing and magazine-fed weapon, the Agripinaa MKII Bolter unleashes mass-reactive bolts with lethal precision. Its versatile design makes it a stalwart companion on the battlefield, capable of engaging a spectrum of adversaries, from infantry to armored foes.\n\nWith each discharge, the unmistakable crack of mass-reactive bolts echoes, a symphony of destruction that heralds the Agripinaa MKII Bolter's prowess in turning the tide of battle. In the hands of the disciplined soldiers of the Astra Militarum, this bolter stands as a testament to the Imperium's commitment to overwhelming firepower and technological supremacy in the ceaseless struggle against heresy and alien adversaries in the grim and war-torn galaxy of Warhammer 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E212" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'In the vast expanses of the Warhammer 40,000 universe, the Astra Militarum Tanker Agripinaa MKII Bolter stands as a formidable testament to the might of the Imperium's armored forces. Forged with precision engineering, this bolter bears a rugged and matte-black ceramite alloy exterior, a symbol of its resilience amidst the relentless tumult of warfare.\n\nDesigned for the armored crews of the Astra Militarum, the Agripinaa MKII Tanker Bolter serves as a compact yet potent firearm. Its rapid-firing mechanism and magazine-fed design make it an ideal companion for tank crews, providing them with a means to repel threats both within and outside their armored vehicles.\n\nWith each discharge, the sharp report of mass-reactive bolts resounds, a harmonious symphony of firepower that underscores the Agripinaa MKII Tanker Bolter's capability to maintain dominance on the battlefield. In the hands of the valiant tank crews of the Astra Militarum, this bolter stands as a symbol of the Imperium's commitment to arming its forces with advanced technology, ensuring victory against the myriad foes in the grim and war-torn galaxy of Warhammer 40,000.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E579" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-25에 삭제됨. 삭제 이전 번역문: '물건 제작중'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E580" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-25에 삭제됨. 삭제 이전 번역문: '물건 제작'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E581" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-25에 삭제됨. 삭제 이전 번역문: '제작'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E583" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21에 새로 추가된 노드들 (37개)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E620" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-25에 새로 추가된 노드들 (6개)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="1919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3195" uniqueCount="1884">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -5956,7 +5659,7 @@
     <t>GW_AM_Gun_FragLauncher.label</t>
   </si>
   <si>
-    <t>Voss Pattern Launcher (Frag)</t>
+    <t>Voss pattern launcher (EMP)</t>
   </si>
   <si>
     <r>
@@ -6007,7 +5710,7 @@
     <t>GW_AM_Gun_EMPLauncher.label</t>
   </si>
   <si>
-    <t>Voss Pattern Launcher (EMP)</t>
+    <t>Voss pattern launcher (Smoke)</t>
   </si>
   <si>
     <t>보스 패턴 런처 (EMP)</t>
@@ -6049,7 +5752,7 @@
     <t>GW_AM_Gun_SmokeLauncher.label</t>
   </si>
   <si>
-    <t>Voss Pattern Launcher (Smoke)</t>
+    <t>Voss pattern launcher (Stun)</t>
   </si>
   <si>
     <r>
@@ -6100,7 +5803,7 @@
     <t>GW_AM_Gun_StunLauncher.label</t>
   </si>
   <si>
-    <t>Voss Pattern Launcher (Stun)</t>
+    <t>Voss pattern launcher (Tox)</t>
   </si>
   <si>
     <r>
@@ -6151,7 +5854,7 @@
     <t>GW_AM_Gun_ToxLauncher.label</t>
   </si>
   <si>
-    <t>Voss Pattern Launcher (Tox)</t>
+    <t>Militarum missile launcher</t>
   </si>
   <si>
     <r>
@@ -6286,19 +5989,7 @@
     <t>GW_AM_Gun_MissileLauncher.label</t>
   </si>
   <si>
-    <t>Missile Launcher</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>미사일 런처</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>Acctran flamer</t>
   </si>
   <si>
     <t>ThingDef+GW_AM_Gun_MissileLauncher.description</t>
@@ -6433,9 +6124,6 @@
     <t>GW_AM_Gun_Flamer.label</t>
   </si>
   <si>
-    <t>Acctran Flamer</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7132,697 +6820,538 @@
     <t>타란툴라 라스캐논 포탑의 포탑 부분입니다.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>WorkGiverDef+DoBillsMilitarumFabricationBench.label</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkGiverDef</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>DoBillsMilitarumFabricationBench.label</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>fabricate things</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>WorkGiverDef+DoBillsMilitarumFabricationBench.gerund</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>DoBillsMilitarumFabricationBench.gerund</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>fabricating things at</t>
+    <t>ResearchProjectDef+GW_AM_OfficersOfAM.label</t>
+  </si>
+  <si>
+    <t>GW_AM_OfficersOfAM.label</t>
+  </si>
+  <si>
+    <t>Officers of Astra Militarum</t>
+  </si>
+  <si>
+    <t>아스트라 밀리타룸의 장교들</t>
+  </si>
+  <si>
+    <t>ResearchProjectDef+GW_AM_OfficersOfAM.description</t>
+  </si>
+  <si>
+    <t>GW_AM_OfficersOfAM.description</t>
+  </si>
+  <si>
+    <t>Officers of the Militarum in Warhammer 40,000 have distinct attire: the Commissar wears a black greatcoat and peaked cap, the Militarum Priest dons religious robes, Militarum Engineseer which help Guard with thier tanks, the Field Medic dresses in standard fatigues with a red cross symbol, and the Sanctioned Psyker is clad in robes with psychic glyphs, bearing a glowing mark, and wielding a crackling staff.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>워해머 40,000의 밀리타룸 장교는 검은색 그레이트코트와 뾰족한 모자를 쓰고, 밀리타룸 프리스트는 종교 예복을 입고, 밀리타룸 엔지니어는 전차로 경비병을 돕고, 야전 의무병은 붉은 십자가 문양이 새겨진 일반 군복, 인가된 사이커는 초능력 문양이 새겨진 로브를 입고 빛나는 표식을 지니며 딱딱한 지팡이를 휘두르는 독특한 복장을 갖추고 있습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScenarioDef+HP_AM_MilitarumCrashlanders.scenario.parts.19.text</t>
+  </si>
+  <si>
+    <t>HP_AM_MilitarumCrashlanders.scenario.parts.19.text</t>
+  </si>
+  <si>
+    <t>You have been sent to claim this hostile world in the Emperor's name. You must utilize the equipment granted to you to create a grand beacon of humanity, a Militarum outpost that shall be vital in the fight against the threats that roam this land.\n\nRecruit locals to expand the outpost, and show this world the full might of the Hammer of the Emperor!</t>
+  </si>
+  <si>
+    <t>여러분은 황제의 이름으로 이 적대적인 세계를 차지하기 위해 파견되었습니다. 여러분은 부여받은 장비를 활용하여 이 땅을 떠도는 위협에 맞서 싸우는 데 필수적인 밀리타룸의 전초기지인 인류의 웅장한 봉화를 만들어야 합니다.\n\n지역 주민을 모집하여 전초 기지를 확장하고 황제의 망치의 힘을 온 세상에 보여주세요!</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_HeavyBolter.comps.3.fuelLabel</t>
+  </si>
+  <si>
+    <t>GW_Building_HeavyBolter.comps.3.fuelLabel</t>
+  </si>
+  <si>
+    <t>Shots until reload</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>재장전까지 남은 사격 횟수</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_HeavyBolter.comps.3.fuelGizmoLabel</t>
+  </si>
+  <si>
+    <t>GW_Building_HeavyBolter.comps.3.fuelGizmoLabel</t>
+  </si>
+  <si>
+    <t>Current Ammo</t>
+  </si>
+  <si>
+    <t>현재 탄약</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_HeavyBolter.comps.3.outOfFuelMessage</t>
+  </si>
+  <si>
+    <t>GW_Building_HeavyBolter.comps.3.outOfFuelMessage</t>
+  </si>
+  <si>
+    <t>Needs more ammo</t>
+  </si>
+  <si>
+    <t>탄약이 더 필요함</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_Autocannon.comps.3.fuelLabel</t>
+  </si>
+  <si>
+    <t>GW_Building_Autocannon.comps.3.fuelLabel</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_Autocannon.comps.3.fuelGizmoLabel</t>
+  </si>
+  <si>
+    <t>GW_Building_Autocannon.comps.3.fuelGizmoLabel</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_Autocannon.comps.3.outOfFuelMessage</t>
+  </si>
+  <si>
+    <t>GW_Building_Autocannon.comps.3.outOfFuelMessage</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.2.fuelLabel</t>
+  </si>
+  <si>
+    <t>GW_Building_TarantulaHeavyBolter.comps.2.fuelLabel</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.2.fuelGizmoLabel</t>
+  </si>
+  <si>
+    <t>GW_Building_TarantulaHeavyBolter.comps.2.fuelGizmoLabel</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.2.outOfFuelMessage</t>
+  </si>
+  <si>
+    <t>GW_Building_TarantulaHeavyBolter.comps.2.outOfFuelMessage</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.label</t>
+  </si>
+  <si>
+    <t>GW_AM_MeleeWeapon_Eviscerator.label</t>
+  </si>
+  <si>
+    <t>Eviscerator</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>에비서레이터</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.description</t>
+  </si>
+  <si>
+    <t>GW_AM_MeleeWeapon_Eviscerator.description</t>
+  </si>
+  <si>
+    <t>The Eviscerator, a towering symbol of the Imperium's might, this monstrous chainsword cleaves through the enemies of humanity with relentless brutality, leaving a trail of devastation in the grim darkness of the 41st millennium's unending wars.</t>
+  </si>
+  <si>
+    <t>제국군의 위용을 상징하는 에비서레이터는 괴물 같은 체인소드로 인류의 적을 가차없는 잔인함으로 베어내며 41천 년 동안 끝나지 않은 전쟁의 암울한 어둠 속에 파괴의 흔적을 남겼습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.tools.0.label</t>
+  </si>
+  <si>
+    <t>GW_AM_MeleeWeapon_Eviscerator.tools.0.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자루</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.tools.1.label</t>
+  </si>
+  <si>
+    <t>GW_AM_MeleeWeapon_Eviscerator.tools.1.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>날</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.tools.2.label</t>
+  </si>
+  <si>
+    <t>GW_AM_MeleeWeapon_Eviscerator.tools.2.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>칼끝</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_PriestGear.label</t>
+  </si>
+  <si>
+    <t>GW_AM_PriestGear.label</t>
+  </si>
+  <si>
+    <t>Priest Robe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사제 예복</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_PriestGear.description</t>
+  </si>
+  <si>
+    <t>GW_AM_PriestGear.description</t>
+  </si>
+  <si>
+    <t>The Priest robe\n\n In the grim darkness of the 41st millennium is a garment that symbolizes both the sacred and the utilitarian. Crafted from heavy, coarse fabrics adorned with intricate iconography and religious symbols, it serves as the outer vestment of the devout clergy within the Imperium of Man.</t>
+  </si>
+  <si>
+    <t>사제 예복\n\n41세기의 암울한 어둠 속에서 성스러운 것과 실용적인 것을 모두 상징하는 의복입니다. 복잡한 도상과 종교적 상징으로 장식된 무겁고 거친 천으로 제작되어, 인간 제국 내 독실한 성직자들의 겉옷 역할을 합니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarAttachment.label</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarAttachment.label</t>
+  </si>
+  <si>
+    <t>Commissar gorget</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>커미사르 고짓</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarAttachment.description</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarAttachment.description</t>
+  </si>
+  <si>
+    <t>The Commissar gorget, a symbol of authority in the Imperium, is a rigid high-collar piece worn around the neck, extending down to cover the upper chest. Made of durable materials like adamantium or ceramite, it bears the golden aquila of the Imperium and intricate filigree. It's both protective and symbolic, reminding soldiers of the consequences of disobedience and heresy.</t>
+  </si>
+  <si>
+    <t>제국 권위의 상징인 커미사르 고짓은 목에 두르는 견고한 하이칼라로, 가슴 위쪽을 덮을 정도로 길게 내려오는 디자인입니다. 아다만티움이나 세라마이트와 같은 내구성이 강한 소재로 제작되었으며, 제국의 황금빛 아퀼라와 복잡한 선조가 새겨져 있습니다. 군인들에게 불복종과 이단의 결과를 상기시켜주는 보호용이자 상징적인 아이템입니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_PriestHat.label</t>
+  </si>
+  <si>
+    <t>GW_AM_PriestHat.label</t>
+  </si>
+  <si>
+    <t>Priest Hat</t>
+  </si>
+  <si>
+    <t>사제 모자</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_PriestHat.description</t>
+  </si>
+  <si>
+    <t>GW_AM_PriestHat.description</t>
+  </si>
+  <si>
+    <t>The Priest hat\n\n In the grim darkness of the 41st millennium is a solemn and iconic piece of headwear worn by the devout clergy of the Imperium of Man. Resembling a tall, conical shape, it is often crafted from heavy fabrics and adorned with intricate embroideries and religious symbols.</t>
+  </si>
+  <si>
+    <t>사제 모자\n\n41세기의 암울한 어둠 속에서 인간 제국의 독실한 성직자들이 착용하는 엄숙하고 상징적인 모자입니다. 키가 크고 원뿔 모양을 닮은 이 모자는 무거운 천으로 만들어지며 복잡한 자수와 종교적 상징으로 장식되어 있는 경우가 많습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_PriestHood.label</t>
+  </si>
+  <si>
+    <t>GW_AM_PriestHood.label</t>
+  </si>
+  <si>
+    <t>Priest Hood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사제 후드</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_PriestHood.description</t>
+  </si>
+  <si>
+    <t>GW_AM_PriestHood.description</t>
+  </si>
+  <si>
+    <t>The Priest hood\n\n In the 41st millennium is a sacred garment worn by the devout clergy of the Imperium of Man. Crafted from heavy, durable fabrics, it drapes over the shoulders and frames the face, conveying an aura of solemnity and reverence.</t>
+  </si>
+  <si>
+    <t>사제 후드\n\n41세기에 인간 제국의 독실한 성직자들이 입었던 신성한 의복입니다. 튼튼하고 무거운 천으로 제작되어 어깨를 덮고 얼굴을 감싸며 엄숙하고 경건한 분위기를 자아냅니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_PriestHoodDown.label</t>
+  </si>
+  <si>
+    <t>GW_AM_PriestHoodDown.label</t>
+  </si>
+  <si>
+    <t>Priest Hood(down)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>사제 후드 (다운)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_PriestHoodDown.description</t>
+  </si>
+  <si>
+    <t>GW_AM_PriestHoodDown.description</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarCap.label</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarCap.label</t>
+  </si>
+  <si>
+    <t>Commissar Cap</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>커미사르 캡</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarCap.description</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarCap.description</t>
+  </si>
+  <si>
+    <t>The Commissar cap\n\n A distinguished emblem of authority within the Imperium of Man, donned by the revered Commissariat officers. It features a sleek, peaked design, crafted from sturdy materials like leather or reinforced fabric.</t>
+  </si>
+  <si>
+    <t>커미사르 캡\n\n인간 제국 내에서 권위를 상징하는 상징으로, 존경받는 커미사르청의 장교들이 착용합니다. 가죽이나 강화 천과 같은 튼튼한 소재로 제작된 매끈하고 뾰족한 디자인이 특징입니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarMiddle.label</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarMiddle.label</t>
+  </si>
+  <si>
+    <t>commissar armor plate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>커미사르 판금 갑옷</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarMiddle.description</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarMiddle.description</t>
+  </si>
+  <si>
+    <t>The Commissar armor plate\n\n Imposing symbol of authority and resilience worn by the esteemed Commissars of the Imperium. Fashioned from adamantium or ceramite, it boasts a formidable design, providing both protection and intimidation on the battlefield.</t>
+  </si>
+  <si>
+    <t>커미사르 판금 갑옷\n\n제국의 존경받는 커미사르가 착용하는 권위와 강인함의 상징입니다. 아다만티움 또는 세라믹으로 제작된 이 갑옷은 전장에서 보호와 위협을 동시에 제공하는 강력한 디자인을 자랑합니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarUniform.description</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarUniform.description</t>
+  </si>
+  <si>
+    <t>아스트라 밀리타룸 군복:\n\n전투에서 검증되어 믿을 수 있는 아스트라 밀리타룸 군복은 임페리얼 가드의 탄력적인 병사들을 위한 표준 보급품입니다. 내구성과 편안함을 위해 제작된 이 실용적인 의복은 강화된 원단과 실용적인 디자인 요소가 특징입니다. 광활한 제국의 최전선에서 가드맨들이 착용하는 피티지는 일반 군인의 불굴의 정신을 상징합니다. 임무에 대한 흔들림 없는 헌신을 상징하는 이 군복은 워해머 40,000의 암울하고 위험한 전장에서 아스트라 밀리타룸의 불굴의 결의를 보여주는 증거입니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarUniform.label</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarUniform.label</t>
+  </si>
+  <si>
+    <t>Commissar Uniform</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>커미사르 유니폼</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarOuter.label</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarOuter.label</t>
+  </si>
+  <si>
+    <t>Commissar Jacket</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>커미사르 자켓</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+GW_AM_CommissarOuter.description</t>
+  </si>
+  <si>
+    <t>GW_AM_CommissarOuter.description</t>
+  </si>
+  <si>
+    <t>The Commissar Jacket\n\n A distinctive garment worn by the revered Commissars of the Imperium, exuding authority and discipline on the battlefield. Crafted from durable yet supple materials, it features a tailored fit that emphasizes the wearer's imposing presence.</t>
+  </si>
+  <si>
+    <t>커미사르 재킷\n\n존경받는 제국의 커미사르가 착용하는 독특한 의복으로 전장에서 권위와 규율을 발산합니다. 내구성이 뛰어나면서도 유연한 소재로 제작되었으며, 착용자의 당당한 존재감을 강조하는 테일러드 핏이 특징입니다.</t>
+  </si>
+  <si>
+    <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWEL_Bullet_Hellbolt.label</t>
+  </si>
+  <si>
+    <t>VWEL_Bullet_Hellbolt.label</t>
+  </si>
+  <si>
+    <t>Hellgun Lasbolt</t>
+  </si>
+  <si>
+    <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWEL_Bullet_Hellbolt.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>헬건 라스볼트</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VWEL_Bullet_Hellbolt.description</t>
+  </si>
+  <si>
+    <t>A concentrated beam of light that burns the target - and often through them.</t>
+  </si>
+  <si>
+    <t>집중된 광선으로 대상을 태우거나 대상을 관통하는 광선입니다.</t>
+  </si>
+  <si>
+    <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWEL_Bullet_LasboltACC.label</t>
   </si>
   <si>
     <t>VWEL_Bullet_LasboltACC.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>WorkGiverDef+DoBillsMilitarumFabricationBench.verb</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>DoBillsMilitarumFabricationBench.verb</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>fabricate</t>
-  </si>
-  <si>
-    <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWEL_Bullet_LasboltACC.label</t>
-  </si>
-  <si>
-    <t>ResearchProjectDef+GW_AM_OfficersOfAM.label</t>
-  </si>
-  <si>
-    <t>GW_AM_OfficersOfAM.label</t>
-  </si>
-  <si>
-    <t>Officers of Astra Militarum</t>
-  </si>
-  <si>
-    <t>아스트라 밀리타룸의 장교들</t>
-  </si>
-  <si>
-    <t>ResearchProjectDef+GW_AM_OfficersOfAM.description</t>
-  </si>
-  <si>
-    <t>GW_AM_OfficersOfAM.description</t>
-  </si>
-  <si>
-    <t>Officers of the Militarum in Warhammer 40,000 have distinct attire: the Commissar wears a black greatcoat and peaked cap, the Militarum Priest dons religious robes, Militarum Engineseer which help Guard with thier tanks, the Field Medic dresses in standard fatigues with a red cross symbol, and the Sanctioned Psyker is clad in robes with psychic glyphs, bearing a glowing mark, and wielding a crackling staff.</t>
-  </si>
-  <si>
-    <t>ScenarioDef+HP_AM_MilitarumCrashlanders.scenario.parts.19.text</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>워해머 40,000의 밀리타룸 장교는 검은색 그레이트코트와 뾰족한 모자를 쓰고, 밀리타룸 프리스트는 종교 예복을 입고, 밀리타룸 엔지니어는 전차로 경비병을 돕고, 야전 의무병은 붉은 십자가 문양이 새겨진 일반 군복, 인가된 사이커는 초능력 문양이 새겨진 로브를 입고 빛나는 표식을 지니며 딱딱한 지팡이를 휘두르는 독특한 복장을 갖추고 있습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP_AM_MilitarumCrashlanders.scenario.parts.19.text</t>
-  </si>
-  <si>
-    <t>You have been sent to claim this hostile world in the Emperor's name. You must utilize the equipment granted to you to create a grand beacon of humanity, a Militarum outpost that shall be vital in the fight against the threats that roam this land.\n\nRecruit locals to expand the outpost, and show this world the full might of the Hammer of the Emperor!</t>
-  </si>
-  <si>
-    <t>여러분은 황제의 이름으로 이 적대적인 세계를 차지하기 위해 파견되었습니다. 여러분은 부여받은 장비를 활용하여 이 땅을 떠도는 위협에 맞서 싸우는 데 필수적인 밀리타룸의 전초기지인 인류의 웅장한 봉화를 만들어야 합니다.\n\n지역 주민을 모집하여 전초 기지를 확장하고 황제의 망치의 힘을 온 세상에 보여주세요!</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_HeavyBolter.comps.3.fuelLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_HeavyBolter.comps.3.fuelLabel</t>
-  </si>
-  <si>
-    <t>Shots until reload</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>재장전까지 남은 사격 횟수</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_HeavyBolter.comps.3.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_HeavyBolter.comps.3.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>Current Ammo</t>
-  </si>
-  <si>
-    <t>현재 탄약</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_HeavyBolter.comps.3.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>GW_Building_HeavyBolter.comps.3.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>Needs more ammo</t>
-  </si>
-  <si>
-    <t>탄약이 더 필요함</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_Autocannon.comps.3.fuelLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_Autocannon.comps.3.fuelLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_Autocannon.comps.3.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_Autocannon.comps.3.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_Autocannon.comps.3.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>GW_Building_Autocannon.comps.3.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.2.fuelLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_TarantulaHeavyBolter.comps.2.fuelLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.2.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_TarantulaHeavyBolter.comps.2.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.2.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>GW_Building_TarantulaHeavyBolter.comps.2.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.label</t>
-  </si>
-  <si>
-    <t>GW_AM_MeleeWeapon_Eviscerator.label</t>
-  </si>
-  <si>
-    <t>Eviscerator</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>에비서레이터</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_MeleeWeapon_Eviscerator.description</t>
-  </si>
-  <si>
-    <t>The Eviscerator, a towering symbol of the Imperium's might, this monstrous chainsword cleaves through the enemies of humanity with relentless brutality, leaving a trail of devastation in the grim darkness of the 41st millennium's unending wars.</t>
-  </si>
-  <si>
-    <t>제국군의 위용을 상징하는 에비서레이터는 괴물 같은 체인소드로 인류의 적을 가차없는 잔인함으로 베어내며 41천 년 동안 끝나지 않은 전쟁의 암울한 어둠 속에 파괴의 흔적을 남겼습니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.tools.0.label</t>
-  </si>
-  <si>
-    <t>GW_AM_MeleeWeapon_Eviscerator.tools.0.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>자루</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.tools.1.label</t>
-  </si>
-  <si>
-    <t>GW_AM_MeleeWeapon_Eviscerator.tools.1.label</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_MeleeWeapon_Eviscerator.tools.2.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>날</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_MeleeWeapon_Eviscerator.tools.2.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>칼끝</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_PriestGear.label</t>
-  </si>
-  <si>
-    <t>GW_AM_PriestGear.label</t>
-  </si>
-  <si>
-    <t>Priest Robe</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_PriestGear.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>사제 예복</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_PriestGear.description</t>
-  </si>
-  <si>
-    <t>The Priest robe\n\n In the grim darkness of the 41st millennium is a garment that symbolizes both the sacred and the utilitarian. Crafted from heavy, coarse fabrics adorned with intricate iconography and religious symbols, it serves as the outer vestment of the devout clergy within the Imperium of Man.</t>
-  </si>
-  <si>
-    <t>사제 예복\n\n41세기의 암울한 어둠 속에서 성스러운 것과 실용적인 것을 모두 상징하는 의복입니다. 복잡한 도상과 종교적 상징으로 장식된 무겁고 거친 천으로 제작되어, 인간 제국 내 독실한 성직자들의 겉옷 역할을 합니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarAttachment.label</t>
-  </si>
-  <si>
-    <t>GW_AM_CommissarAttachment.label</t>
-  </si>
-  <si>
-    <t>Commissar gorget</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarAttachment.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>커미사르 고짓</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_CommissarAttachment.description</t>
-  </si>
-  <si>
-    <t>The Commissar gorget, a symbol of authority in the Imperium, is a rigid high-collar piece worn around the neck, extending down to cover the upper chest. Made of durable materials like adamantium or ceramite, it bears the golden aquila of the Imperium and intricate filigree. It's both protective and symbolic, reminding soldiers of the consequences of disobedience and heresy.</t>
-  </si>
-  <si>
-    <t>제국 권위의 상징인 커미사르 고짓은 목에 두르는 견고한 하이칼라로, 가슴 위쪽을 덮을 정도로 길게 내려오는 디자인입니다. 아다만티움이나 세라마이트와 같은 내구성이 강한 소재로 제작되었으며, 제국의 황금빛 아퀼라와 복잡한 선조가 새겨져 있습니다. 군인들에게 불복종과 이단의 결과를 상기시켜주는 보호용이자 상징적인 아이템입니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_PriestHat.label</t>
-  </si>
-  <si>
-    <t>GW_AM_PriestHat.label</t>
-  </si>
-  <si>
-    <t>Priest Hat</t>
-  </si>
-  <si>
-    <t>사제 모자</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_PriestHat.description</t>
-  </si>
-  <si>
-    <t>GW_AM_PriestHat.description</t>
-  </si>
-  <si>
-    <t>The Priest hat\n\n In the grim darkness of the 41st millennium is a solemn and iconic piece of headwear worn by the devout clergy of the Imperium of Man. Resembling a tall, conical shape, it is often crafted from heavy fabrics and adorned with intricate embroideries and religious symbols.</t>
-  </si>
-  <si>
-    <t>사제 모자\n\n41세기의 암울한 어둠 속에서 인간 제국의 독실한 성직자들이 착용하는 엄숙하고 상징적인 모자입니다. 키가 크고 원뿔 모양을 닮은 이 모자는 무거운 천으로 만들어지며 복잡한 자수와 종교적 상징으로 장식되어 있는 경우가 많습니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_PriestHood.label</t>
-  </si>
-  <si>
-    <t>GW_AM_PriestHood.label</t>
-  </si>
-  <si>
-    <t>Priest Hood</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_PriestHood.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>사제 후드</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_PriestHood.description</t>
-  </si>
-  <si>
-    <t>The Priest hood\n\n In the 41st millennium is a sacred garment worn by the devout clergy of the Imperium of Man. Crafted from heavy, durable fabrics, it drapes over the shoulders and frames the face, conveying an aura of solemnity and reverence.</t>
-  </si>
-  <si>
-    <t>사제 후드\n\n41세기에 인간 제국의 독실한 성직자들이 입었던 신성한 의복입니다. 튼튼하고 무거운 천으로 제작되어 어깨를 덮고 얼굴을 감싸며 엄숙하고 경건한 분위기를 자아냅니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_PriestHoodDown.label</t>
-  </si>
-  <si>
-    <t>GW_AM_PriestHoodDown.label</t>
-  </si>
-  <si>
-    <t>Priest Hood(down)</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_PriestHoodDown.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>사제 후드 (다운)</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_PriestHoodDown.description</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarCap.label</t>
-  </si>
-  <si>
-    <t>GW_AM_CommissarCap.label</t>
-  </si>
-  <si>
-    <t>Commissar Cap</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarCap.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>커미사르 캡</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_CommissarCap.description</t>
-  </si>
-  <si>
-    <t>The Commissar cap\n\n A distinguished emblem of authority within the Imperium of Man, donned by the revered Commissariat officers. It features a sleek, peaked design, crafted from sturdy materials like leather or reinforced fabric.</t>
-  </si>
-  <si>
-    <t>커미사르 캡\n\n인간 제국 내에서 권위를 상징하는 상징으로, 존경받는 커미사르청의 장교들이 착용합니다. 가죽이나 강화 천과 같은 튼튼한 소재로 제작된 매끈하고 뾰족한 디자인이 특징입니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarMiddle.label</t>
-  </si>
-  <si>
-    <t>GW_AM_CommissarMiddle.label</t>
-  </si>
-  <si>
-    <t>commissar armor plate</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarMiddle.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>커미사르 판금 갑옷</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_CommissarMiddle.description</t>
-  </si>
-  <si>
-    <t>The Commissar armor plate\n\n Imposing symbol of authority and resilience worn by the esteemed Commissars of the Imperium. Fashioned from adamantium or ceramite, it boasts a formidable design, providing both protection and intimidation on the battlefield.</t>
-  </si>
-  <si>
-    <t>커미사르 판금 갑옷\n\n제국의 존경받는 커미사르가 착용하는 권위와 강인함의 상징입니다. 아다만티움 또는 세라믹으로 제작된 이 갑옷은 전장에서 보호와 위협을 동시에 제공하는 강력한 디자인을 자랑합니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarUniform.description</t>
-  </si>
-  <si>
-    <t>GW_AM_CommissarUniform.description</t>
-  </si>
-  <si>
-    <t>아스트라 밀리타룸 군복:\n\n전투에서 검증되어 믿을 수 있는 아스트라 밀리타룸 군복은 임페리얼 가드의 탄력적인 병사들을 위한 표준 보급품입니다. 내구성과 편안함을 위해 제작된 이 실용적인 의복은 강화된 원단과 실용적인 디자인 요소가 특징입니다. 광활한 제국의 최전선에서 가드맨들이 착용하는 피티지는 일반 군인의 불굴의 정신을 상징합니다. 임무에 대한 흔들림 없는 헌신을 상징하는 이 군복은 워해머 40,000의 암울하고 위험한 전장에서 아스트라 밀리타룸의 불굴의 결의를 보여주는 증거입니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarUniform.label</t>
-  </si>
-  <si>
-    <t>GW_AM_CommissarUniform.label</t>
-  </si>
-  <si>
-    <t>Commissar Uniform</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarOuter.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>커미사르 유니폼</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_CommissarOuter.label</t>
-  </si>
-  <si>
-    <t>Commissar Jacket</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_AM_CommissarOuter.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>커미사르 자켓</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>GW_AM_CommissarOuter.description</t>
-  </si>
-  <si>
-    <t>The Commissar Jacket\n\n A distinctive garment worn by the revered Commissars of the Imperium, exuding authority and discipline on the battlefield. Crafted from durable yet supple materials, it features a tailored fit that emphasizes the wearer's imposing presence.</t>
-  </si>
-  <si>
-    <t>커미사르 재킷\n\n존경받는 제국의 커미사르가 착용하는 독특한 의복으로 전장에서 권위와 규율을 발산합니다. 내구성이 뛰어나면서도 유연한 소재로 제작되었으며, 착용자의 당당한 존재감을 강조하는 테일러드 핏이 특징입니다.</t>
-  </si>
-  <si>
-    <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWEL_Bullet_Hellbolt.label</t>
-  </si>
-  <si>
-    <t>VWEL_Bullet_Hellbolt.label</t>
-  </si>
-  <si>
-    <t>Hellgun Lasbolt</t>
-  </si>
-  <si>
-    <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWEL_Bullet_Hellbolt.description</t>
-  </si>
-  <si>
-    <t>VWEL_Bullet_Hellbolt.description</t>
-  </si>
-  <si>
-    <t>A concentrated beam of light that burns the target - and often through them.</t>
-  </si>
-  <si>
-    <t>집중된 광선으로 대상을 태우거나 대상을 관통하는 광선입니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.1.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>GW_Building_TarantulaHeavyBolter.comps.1.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.1.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_TarantulaHeavyBolter.comps.1.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_TarantulaHeavyBolter.comps.1.fuelLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_TarantulaHeavyBolter.comps.1.fuelLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_Autocannon.comps.2.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>GW_Building_Autocannon.comps.2.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_Autocannon.comps.2.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_Autocannon.comps.2.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_Autocannon.comps.2.fuelLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_Autocannon.comps.2.fuelLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_HeavyBolter.comps.2.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>GW_Building_HeavyBolter.comps.2.outOfFuelMessage</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_HeavyBolter.comps.2.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_HeavyBolter.comps.2.fuelGizmoLabel</t>
-  </si>
-  <si>
-    <t>ThingDef+GW_Building_HeavyBolter.comps.2.fuelLabel</t>
-  </si>
-  <si>
-    <t>GW_Building_HeavyBolter.comps.2.fuelLabel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>ScenarioDef+HP_AM_MilitarumCrashlanders.label</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>HP_AM_MilitarumCrashlanders.label</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScenarioDef+HP_AM_MilitarumCrashlanders.scenario.parts.GameStartDialog.text</t>
-  </si>
-  <si>
-    <t>HP_AM_MilitarumCrashlanders.scenario.parts.GameStartDialog.text</t>
-  </si>
-  <si>
-    <t>ScenarioDef+HP_AM_MilitarumCrashlanders.description</t>
-  </si>
-  <si>
-    <t>HP_AM_MilitarumCrashlanders.description</t>
+    <t>라스볼트</t>
   </si>
   <si>
     <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWEL_Bullet_LasboltACC.description</t>
@@ -7831,6 +7360,18 @@
     <t>VWEL_Bullet_LasboltACC.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>A beam of focused light that burns the target.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWELMG_Bullet_Lasbolt.label</t>
   </si>
   <si>
@@ -7849,32 +7390,24 @@
     <t>VWEL_Bullet_Lasboltsmalll.label</t>
   </si>
   <si>
+    <t>VWEL_Bullet_Lasboltsmalll.description</t>
+  </si>
+  <si>
     <t>VanillaWeaponsExpandedLaser.LaserBeamDef+VWEL_Bullet_Lasboltsmalll.description</t>
   </si>
   <si>
-    <t>VWEL_Bullet_Lasboltsmalll.description</t>
-  </si>
-  <si>
-    <t>헬건 라스볼트</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>라스볼트</t>
-  </si>
-  <si>
-    <t>피스톨 라스볼트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A beam of focused light that burns the target.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Voss pattern launcher (Frag)</t>
+  </si>
+  <si>
+    <t>밀리타룸 미사일 런처</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7906,29 +7439,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -7943,12 +7460,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -8250,20 +7766,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F625"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="F623" sqref="F623"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E625" sqref="E625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -8298,7 +7815,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -8315,7 +7832,7 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -8332,7 +7849,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -8349,7 +7866,7 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -8366,7 +7883,7 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -8383,7 +7900,7 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -8400,7 +7917,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -8417,7 +7934,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -8434,7 +7951,7 @@
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -8451,7 +7968,7 @@
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -8468,7 +7985,7 @@
       <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -8485,7 +8002,7 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -8502,7 +8019,7 @@
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -8519,7 +8036,7 @@
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -8536,7 +8053,7 @@
       <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -8553,7 +8070,7 @@
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -8570,10 +8087,10 @@
       <c r="C18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8587,7 +8104,7 @@
       <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -8604,7 +8121,7 @@
       <c r="C20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -8621,7 +8138,7 @@
       <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -8638,7 +8155,7 @@
       <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -8655,7 +8172,7 @@
       <c r="C23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -8672,7 +8189,7 @@
       <c r="C24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -8689,7 +8206,7 @@
       <c r="C25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -8706,7 +8223,7 @@
       <c r="C26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -8723,7 +8240,7 @@
       <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -8740,7 +8257,7 @@
       <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -8757,7 +8274,7 @@
       <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -8774,7 +8291,7 @@
       <c r="C30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -8791,7 +8308,7 @@
       <c r="C31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -8808,7 +8325,7 @@
       <c r="C32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -8825,7 +8342,7 @@
       <c r="C33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -8842,7 +8359,7 @@
       <c r="C34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -8859,7 +8376,7 @@
       <c r="C35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -11732,7 +11249,7 @@
       <c r="C204" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E204" s="3" t="s">
         <v>716</v>
       </c>
       <c r="F204" s="1" t="s">
@@ -11749,7 +11266,7 @@
       <c r="C205" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E205" s="3" t="s">
         <v>720</v>
       </c>
       <c r="F205" s="1" t="s">
@@ -11766,7 +11283,7 @@
       <c r="C206" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" s="3" t="s">
         <v>724</v>
       </c>
       <c r="F206" s="1" t="s">
@@ -11783,7 +11300,7 @@
       <c r="C207" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="3" t="s">
         <v>728</v>
       </c>
       <c r="F207" s="1" t="s">
@@ -11800,7 +11317,7 @@
       <c r="C208" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" s="3" t="s">
         <v>732</v>
       </c>
       <c r="F208" s="1" t="s">
@@ -11817,7 +11334,7 @@
       <c r="C209" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209" s="3" t="s">
         <v>735</v>
       </c>
       <c r="F209" s="1" t="s">
@@ -11834,7 +11351,7 @@
       <c r="C210" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E210" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F210" s="1" t="s">
@@ -11851,7 +11368,7 @@
       <c r="C211" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" s="3" t="s">
         <v>743</v>
       </c>
       <c r="F211" s="1" t="s">
@@ -11868,7 +11385,7 @@
       <c r="C212" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="3" t="s">
         <v>747</v>
       </c>
       <c r="F212" s="1" t="s">
@@ -11885,7 +11402,7 @@
       <c r="C213" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E213" s="3" t="s">
         <v>751</v>
       </c>
       <c r="F213" s="1" t="s">
@@ -11902,7 +11419,7 @@
       <c r="C214" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" s="3" t="s">
         <v>735</v>
       </c>
       <c r="F214" s="1" t="s">
@@ -11919,7 +11436,7 @@
       <c r="C215" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F215" s="1" t="s">
@@ -15421,7 +14938,7 @@
       <c r="C421" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="E421" s="1" t="s">
+      <c r="E421" s="3" t="s">
         <v>1413</v>
       </c>
       <c r="F421" s="1" t="s">
@@ -15438,7 +14955,7 @@
       <c r="C422" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="E422" s="1" t="s">
+      <c r="E422" s="3" t="s">
         <v>1417</v>
       </c>
       <c r="F422" s="1" t="s">
@@ -15455,7 +14972,7 @@
       <c r="C423" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="E423" s="1" t="s">
+      <c r="E423" s="3" t="s">
         <v>1421</v>
       </c>
       <c r="F423" s="1" t="s">
@@ -15472,7 +14989,7 @@
       <c r="C424" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="E424" s="1" t="s">
+      <c r="E424" s="3" t="s">
         <v>1425</v>
       </c>
       <c r="F424" s="1" t="s">
@@ -15489,7 +15006,7 @@
       <c r="C425" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="E425" s="1" t="s">
+      <c r="E425" s="3" t="s">
         <v>1425</v>
       </c>
       <c r="F425" s="1" t="s">
@@ -15506,8 +15023,8 @@
       <c r="C426" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="E426" s="1" t="s">
-        <v>1432</v>
+      <c r="E426" s="3" t="s">
+        <v>1882</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>1433</v>
@@ -15523,7 +15040,7 @@
       <c r="C427" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="E427" s="1" t="s">
+      <c r="E427" s="3" t="s">
         <v>1436</v>
       </c>
       <c r="F427" s="1" t="s">
@@ -15540,7 +15057,7 @@
       <c r="C428" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="E428" s="1" t="s">
+      <c r="E428" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F428" s="1" t="s">
@@ -15557,7 +15074,7 @@
       <c r="C429" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="E429" s="1" t="s">
+      <c r="E429" s="3" t="s">
         <v>782</v>
       </c>
       <c r="F429" s="1" t="s">
@@ -15574,8 +15091,8 @@
       <c r="C430" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="E430" s="1" t="s">
-        <v>1432</v>
+      <c r="E430" s="3" t="s">
+        <v>1882</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>1433</v>
@@ -15591,8 +15108,8 @@
       <c r="C431" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="E431" s="1" t="s">
-        <v>1446</v>
+      <c r="E431" s="3" t="s">
+        <v>1432</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>1447</v>
@@ -15608,7 +15125,7 @@
       <c r="C432" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="E432" s="1" t="s">
+      <c r="E432" s="3" t="s">
         <v>1450</v>
       </c>
       <c r="F432" s="1" t="s">
@@ -15625,7 +15142,7 @@
       <c r="C433" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="E433" s="1" t="s">
+      <c r="E433" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F433" s="1" t="s">
@@ -15642,7 +15159,7 @@
       <c r="C434" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="E434" s="1" t="s">
+      <c r="E434" s="3" t="s">
         <v>782</v>
       </c>
       <c r="F434" s="1" t="s">
@@ -15659,8 +15176,8 @@
       <c r="C435" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="E435" s="1" t="s">
-        <v>1446</v>
+      <c r="E435" s="3" t="s">
+        <v>1432</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>1447</v>
@@ -15676,8 +15193,8 @@
       <c r="C436" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="E436" s="1" t="s">
-        <v>1460</v>
+      <c r="E436" s="3" t="s">
+        <v>1446</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>1461</v>
@@ -15693,7 +15210,7 @@
       <c r="C437" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="E437" s="1" t="s">
+      <c r="E437" s="3" t="s">
         <v>1464</v>
       </c>
       <c r="F437" s="1" t="s">
@@ -15710,7 +15227,7 @@
       <c r="C438" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="E438" s="1" t="s">
+      <c r="E438" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F438" s="1" t="s">
@@ -15727,7 +15244,7 @@
       <c r="C439" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="E439" s="1" t="s">
+      <c r="E439" s="3" t="s">
         <v>782</v>
       </c>
       <c r="F439" s="1" t="s">
@@ -15744,8 +15261,8 @@
       <c r="C440" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="E440" s="1" t="s">
-        <v>1460</v>
+      <c r="E440" s="3" t="s">
+        <v>1446</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>1461</v>
@@ -15761,8 +15278,8 @@
       <c r="C441" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="E441" s="1" t="s">
-        <v>1474</v>
+      <c r="E441" s="3" t="s">
+        <v>1460</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>1475</v>
@@ -15778,7 +15295,7 @@
       <c r="C442" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="E442" s="1" t="s">
+      <c r="E442" s="3" t="s">
         <v>1478</v>
       </c>
       <c r="F442" s="1" t="s">
@@ -15795,7 +15312,7 @@
       <c r="C443" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="E443" s="1" t="s">
+      <c r="E443" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F443" s="1" t="s">
@@ -15812,7 +15329,7 @@
       <c r="C444" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="E444" s="1" t="s">
+      <c r="E444" s="3" t="s">
         <v>782</v>
       </c>
       <c r="F444" s="1" t="s">
@@ -15829,8 +15346,8 @@
       <c r="C445" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="E445" s="1" t="s">
-        <v>1474</v>
+      <c r="E445" s="3" t="s">
+        <v>1460</v>
       </c>
       <c r="F445" s="1" t="s">
         <v>1475</v>
@@ -15846,8 +15363,8 @@
       <c r="C446" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="E446" s="1" t="s">
-        <v>1488</v>
+      <c r="E446" s="3" t="s">
+        <v>1474</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>1489</v>
@@ -15863,7 +15380,7 @@
       <c r="C447" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="E447" s="1" t="s">
+      <c r="E447" s="3" t="s">
         <v>1492</v>
       </c>
       <c r="F447" s="1" t="s">
@@ -15880,7 +15397,7 @@
       <c r="C448" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="E448" s="1" t="s">
+      <c r="E448" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F448" s="1" t="s">
@@ -15897,7 +15414,7 @@
       <c r="C449" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="E449" s="1" t="s">
+      <c r="E449" s="3" t="s">
         <v>782</v>
       </c>
       <c r="F449" s="1" t="s">
@@ -15914,8 +15431,8 @@
       <c r="C450" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="E450" s="1" t="s">
-        <v>1488</v>
+      <c r="E450" s="3" t="s">
+        <v>1474</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>1489</v>
@@ -15931,7 +15448,7 @@
       <c r="C451" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="E451" s="1" t="s">
+      <c r="E451" s="3" t="s">
         <v>1502</v>
       </c>
       <c r="F451" s="1" t="s">
@@ -15948,7 +15465,7 @@
       <c r="C452" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="E452" s="1" t="s">
+      <c r="E452" s="3" t="s">
         <v>1506</v>
       </c>
       <c r="F452" s="1" t="s">
@@ -15965,7 +15482,7 @@
       <c r="C453" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="E453" s="1" t="s">
+      <c r="E453" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="F453" s="1" t="s">
@@ -15982,7 +15499,7 @@
       <c r="C454" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="E454" s="1" t="s">
+      <c r="E454" s="3" t="s">
         <v>1514</v>
       </c>
       <c r="F454" s="1" t="s">
@@ -15999,58 +15516,58 @@
       <c r="C455" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="E455" s="1" t="s">
-        <v>1518</v>
+      <c r="E455" s="3" t="s">
+        <v>1488</v>
       </c>
       <c r="F455" s="1" t="s">
-        <v>1519</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C456" s="1" t="s">
+      <c r="E456" s="3" t="s">
         <v>1521</v>
       </c>
-      <c r="E456" s="1" t="s">
+      <c r="F456" s="1" t="s">
         <v>1522</v>
-      </c>
-      <c r="F456" s="1" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>1518</v>
+      <c r="E457" s="3" t="s">
+        <v>1488</v>
       </c>
       <c r="F457" s="1" t="s">
-        <v>1519</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E458" s="1" t="s">
+      <c r="E458" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F458" s="1" t="s">
@@ -16059,64 +15576,64 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C459" s="1" t="s">
+      <c r="E459" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="E459" s="1" t="s">
+      <c r="F459" s="1" t="s">
         <v>1530</v>
-      </c>
-      <c r="F459" s="1" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C460" s="1" t="s">
+      <c r="E460" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="E460" s="1" t="s">
+      <c r="F460" s="1" t="s">
         <v>1534</v>
-      </c>
-      <c r="F460" s="1" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>1537</v>
-      </c>
       <c r="E461" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F461" s="1" t="s">
         <v>1530</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1538</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>1539</v>
       </c>
       <c r="E462" s="1" t="s">
         <v>782</v>
@@ -16127,13 +15644,13 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1540</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>1541</v>
       </c>
       <c r="E463" s="1" t="s">
         <v>739</v>
@@ -16144,66 +15661,66 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C464" s="1" t="s">
+      <c r="E464" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="E464" s="1" t="s">
+      <c r="F464" s="1" t="s">
         <v>1544</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="B465" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C465" s="1" t="s">
+      <c r="E465" s="3" t="s">
         <v>1547</v>
       </c>
-      <c r="E465" s="1" t="s">
+      <c r="F465" s="1" t="s">
         <v>1548</v>
-      </c>
-      <c r="F465" s="1" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E466" s="1" t="s">
+      <c r="E466" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F466" s="1" t="s">
         <v>1544</v>
-      </c>
-      <c r="F466" s="1" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="B467" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E467" s="1" t="s">
+      <c r="E467" s="3" t="s">
         <v>782</v>
       </c>
       <c r="F467" s="1" t="s">
@@ -16212,15 +15729,15 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="B468" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E468" s="1" t="s">
+      <c r="E468" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F468" s="1" t="s">
@@ -16229,49 +15746,49 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C469" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="B469" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C469" s="1" t="s">
+      <c r="E469" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F469" s="1" t="s">
         <v>1557</v>
-      </c>
-      <c r="E469" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F469" s="1" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E470" s="3" t="s">
         <v>1560</v>
       </c>
-      <c r="B470" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C470" s="1" t="s">
+      <c r="F470" s="1" t="s">
         <v>1561</v>
-      </c>
-      <c r="E470" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E471" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E471" s="3" t="s">
         <v>739</v>
       </c>
       <c r="F471" s="1" t="s">
@@ -16280,322 +15797,322 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E472" s="1" t="s">
-        <v>1558</v>
+        <v>1565</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>1518</v>
       </c>
       <c r="F472" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C473" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F473" s="1" t="s">
         <v>1569</v>
-      </c>
-      <c r="E473" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>1568</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C475" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F475" s="1" t="s">
         <v>1575</v>
-      </c>
-      <c r="E475" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C476" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F476" s="1" t="s">
         <v>1579</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E477" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C477" s="1" t="s">
+      <c r="F477" s="1" t="s">
         <v>1583</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E478" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C478" s="1" t="s">
+      <c r="F478" s="1" t="s">
         <v>1587</v>
-      </c>
-      <c r="E478" s="1" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E479" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C479" s="1" t="s">
+      <c r="F479" s="1" t="s">
         <v>1591</v>
-      </c>
-      <c r="E479" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E480" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C480" s="1" t="s">
+      <c r="F480" s="1" t="s">
         <v>1595</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="F481" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C483" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F483" s="1" t="s">
         <v>1603</v>
-      </c>
-      <c r="E483" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F483" s="1" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E484" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C484" s="1" t="s">
+      <c r="F484" s="1" t="s">
         <v>1607</v>
-      </c>
-      <c r="E484" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F484" s="1" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E485" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C485" s="1" t="s">
+      <c r="F485" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="E485" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="F485" s="1" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E486" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C486" s="1" t="s">
+      <c r="F486" s="1" t="s">
         <v>1615</v>
-      </c>
-      <c r="E486" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E487" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C487" s="1" t="s">
+      <c r="F487" s="1" t="s">
         <v>1619</v>
-      </c>
-      <c r="E487" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F487" s="1" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E488" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C488" s="1" t="s">
+      <c r="F488" s="1" t="s">
         <v>1623</v>
-      </c>
-      <c r="E488" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="F488" s="1" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E489" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C489" s="1" t="s">
+      <c r="F489" s="1" t="s">
         <v>1627</v>
-      </c>
-      <c r="E489" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>734</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>739</v>
@@ -16606,16 +16123,16 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>738</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>735</v>
@@ -16626,16 +16143,16 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>739</v>
@@ -16646,16 +16163,16 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>755</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>735</v>
@@ -16666,16 +16183,16 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>767</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>739</v>
@@ -16686,16 +16203,16 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>769</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>735</v>
@@ -16706,16 +16223,16 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>811</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>739</v>
@@ -16726,16 +16243,16 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>813</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>735</v>
@@ -16746,16 +16263,16 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>825</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>739</v>
@@ -16766,16 +16283,16 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>827</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>735</v>
@@ -16786,16 +16303,16 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>839</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>739</v>
@@ -16806,16 +16323,16 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>841</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>735</v>
@@ -16826,16 +16343,16 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>853</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>739</v>
@@ -16846,16 +16363,16 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>855</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>735</v>
@@ -16866,16 +16383,16 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>1128</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>739</v>
@@ -16886,16 +16403,16 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>1130</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>735</v>
@@ -16906,16 +16423,16 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>1142</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>739</v>
@@ -16926,16 +16443,16 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>735</v>
@@ -16946,16 +16463,16 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>739</v>
@@ -16966,16 +16483,16 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>1158</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>735</v>
@@ -16986,16 +16503,16 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>739</v>
@@ -17006,16 +16523,16 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>1196</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>735</v>
@@ -17026,16 +16543,16 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>739</v>
@@ -17046,16 +16563,16 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>735</v>
@@ -17066,16 +16583,16 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>1222</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>739</v>
@@ -17086,16 +16603,16 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>1224</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>735</v>
@@ -17106,16 +16623,16 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>739</v>
@@ -17126,16 +16643,16 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>735</v>
@@ -17146,16 +16663,16 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>1250</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E518" s="1" t="s">
         <v>739</v>
@@ -17166,16 +16683,16 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>1252</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E519" s="1" t="s">
         <v>735</v>
@@ -17186,16 +16703,16 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E520" s="1" t="s">
         <v>739</v>
@@ -17206,16 +16723,16 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E521" s="1" t="s">
         <v>735</v>
@@ -17226,16 +16743,16 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>1307</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E522" s="1" t="s">
         <v>739</v>
@@ -17246,16 +16763,16 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>1309</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>735</v>
@@ -17266,16 +16783,16 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>1322</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>739</v>
@@ -17286,16 +16803,16 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E525" s="1" t="s">
         <v>735</v>
@@ -17306,16 +16823,16 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>1336</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>739</v>
@@ -17326,16 +16843,16 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>1338</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>735</v>
@@ -17346,16 +16863,16 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>1362</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E528" s="1" t="s">
         <v>739</v>
@@ -17366,16 +16883,16 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>1364</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>735</v>
@@ -17386,16 +16903,16 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>1380</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E530" s="1" t="s">
         <v>739</v>
@@ -17406,16 +16923,16 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E531" s="1" t="s">
         <v>735</v>
@@ -17426,16 +16943,16 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>739</v>
@@ -17446,16 +16963,16 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E533" s="1" t="s">
         <v>735</v>
@@ -17466,16 +16983,16 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>739</v>
@@ -17486,16 +17003,16 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E535" s="1" t="s">
         <v>735</v>
@@ -17506,16 +17023,16 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E536" s="1" t="s">
         <v>739</v>
@@ -17526,16 +17043,16 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>1439</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E537" s="1" t="s">
         <v>739</v>
@@ -17546,16 +17063,16 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>1441</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E538" s="1" t="s">
         <v>735</v>
@@ -17566,36 +17083,36 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>535</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E540" s="1" t="s">
         <v>536</v>
@@ -17606,16 +17123,16 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>539</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E541" s="1" t="s">
         <v>540</v>
@@ -17626,16 +17143,16 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>551</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E542" s="1" t="s">
         <v>536</v>
@@ -17646,16 +17163,16 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>553</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>540</v>
@@ -17666,16 +17183,16 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>563</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E544" s="1" t="s">
         <v>536</v>
@@ -17686,16 +17203,16 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>565</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E545" s="1" t="s">
         <v>566</v>
@@ -17706,16 +17223,16 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>635</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E546" s="1" t="s">
         <v>636</v>
@@ -17726,16 +17243,16 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>579</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E547" s="1" t="s">
         <v>536</v>
@@ -17746,36 +17263,36 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>581</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>583</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E549" s="1" t="s">
         <v>584</v>
@@ -17786,16 +17303,16 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E550" s="1" t="s">
         <v>536</v>
@@ -17806,36 +17323,36 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>597</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E552" s="1" t="s">
         <v>584</v>
@@ -17846,16 +17363,16 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>647</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E553" s="1" t="s">
         <v>536</v>
@@ -17866,16 +17383,16 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>649</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E554" s="1" t="s">
         <v>566</v>
@@ -17886,16 +17403,16 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>781</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E555" s="1" t="s">
         <v>739</v>
@@ -17906,16 +17423,16 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>785</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E556" s="1" t="s">
         <v>782</v>
@@ -17926,16 +17443,16 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>797</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E557" s="1" t="s">
         <v>739</v>
@@ -17946,16 +17463,16 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>799</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E558" s="1" t="s">
         <v>782</v>
@@ -17966,16 +17483,16 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>1279</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E559" s="1" t="s">
         <v>739</v>
@@ -17986,16 +17503,16 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E560" s="1" t="s">
         <v>782</v>
@@ -18006,16 +17523,16 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>739</v>
@@ -18026,16 +17543,16 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>1295</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E562" s="1" t="s">
         <v>782</v>
@@ -18046,16 +17563,16 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>1394</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E563" s="1" t="s">
         <v>739</v>
@@ -18066,16 +17583,16 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E564" s="1" t="s">
         <v>782</v>
@@ -18086,16 +17603,16 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E565" s="1" t="s">
         <v>739</v>
@@ -18106,16 +17623,16 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>1410</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E566" s="1" t="s">
         <v>782</v>
@@ -18126,16 +17643,16 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E567" s="1" t="s">
         <v>739</v>
@@ -18146,16 +17663,16 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E568" s="1" t="s">
         <v>782</v>
@@ -18166,16 +17683,16 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>383</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E569" s="1" t="s">
         <v>376</v>
@@ -18186,56 +17703,56 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>387</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>401</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>405</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E572" s="1" t="s">
         <v>406</v>
@@ -18246,215 +17763,241 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>423</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>446</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>450</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>463</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E579" s="3" t="s">
         <v>1740</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="F579" s="1" t="s">
         <v>1741</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E579" s="2" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E580" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="B580" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C580" s="1" t="s">
+      <c r="F580" s="1" t="s">
         <v>1745</v>
-      </c>
-      <c r="E580" s="2" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E581" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="B581" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C581" s="1" t="s">
+      <c r="F581" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="E581" s="2" t="s">
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A582" s="1" t="s">
         <v>1750</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E583" s="4" t="s">
-        <v>1754</v>
+        <v>1755</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1756</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>136</v>
+        <v>374</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.3">
@@ -18468,146 +18011,146 @@
         <v>1765</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>1774</v>
+        <v>1752</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>1775</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>1766</v>
+        <v>1780</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>1767</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F593" s="1" t="s">
         <v>1784</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C593" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E593" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F593" s="1" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C594" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="B594" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C594" s="1" t="s">
+      <c r="E594" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F594" s="1" t="s">
         <v>1787</v>
-      </c>
-      <c r="E594" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F594" s="1" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.3">
@@ -18621,10 +18164,10 @@
         <v>1789</v>
       </c>
       <c r="E595" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F595" s="1" t="s">
         <v>1790</v>
-      </c>
-      <c r="F595" s="1" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.3">
@@ -18635,27 +18178,27 @@
         <v>374</v>
       </c>
       <c r="C596" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E596" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="E596" s="1" t="s">
+      <c r="F596" s="1" t="s">
         <v>1794</v>
-      </c>
-      <c r="F596" s="1" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C597" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="B597" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C597" s="1" t="s">
+      <c r="E597" s="1" t="s">
         <v>1797</v>
-      </c>
-      <c r="E597" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="F597" s="1" t="s">
         <v>1798</v>
@@ -18672,7 +18215,7 @@
         <v>1800</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>540</v>
+        <v>1801</v>
       </c>
       <c r="F598" s="1" t="s">
         <v>1802</v>
@@ -18680,121 +18223,121 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>584</v>
+        <v>1805</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.3">
@@ -18811,12 +18354,12 @@
         <v>1831</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>374</v>
@@ -18845,12 +18388,12 @@
         <v>1839</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>374</v>
@@ -18859,24 +18402,24 @@
         <v>1842</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>1845</v>
+        <v>1048</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>1847</v>
@@ -18884,33 +18427,33 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="F612" s="1" t="s">
         <v>1855</v>
@@ -18918,67 +18461,67 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F613" s="1" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>1048</v>
+        <v>1862</v>
       </c>
       <c r="F614" s="1" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="E616" s="1" t="s">
-        <v>1868</v>
+        <v>1869</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>1161</v>
       </c>
       <c r="F616" s="1" t="s">
         <v>1870</v>
@@ -18986,19 +18529,19 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>1873</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.3">
@@ -19012,399 +18555,62 @@
         <v>1875</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>1876</v>
+        <v>1161</v>
       </c>
       <c r="F618" s="1" t="s">
-        <v>1915</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>429</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>1879</v>
+        <v>1165</v>
       </c>
       <c r="F619" s="1" t="s">
-        <v>1880</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1751</v>
+        <v>1878</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>429</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="E620" s="4" t="s">
-        <v>1161</v>
+        <v>1879</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="F620" s="1" t="s">
-        <v>1916</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
-        <v>1905</v>
+        <v>1881</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>429</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>1906</v>
+        <v>1880</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>1918</v>
+        <v>1181</v>
       </c>
       <c r="F621" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A622" s="1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B622" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C622" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E622" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F622" s="1" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A623" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C623" s="1" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E623" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F623" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A624" s="1" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C624" s="1" t="s">
-        <v>1912</v>
-      </c>
-      <c r="E624" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F624" s="1" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A625" s="1" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C625" s="1" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E625" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F625" s="1" t="s">
         <v>1182</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
